--- a/health-bias-audit/outputs/group_metrics_reweighted.xlsx
+++ b/health-bias-audit/outputs/group_metrics_reweighted.xlsx
@@ -481,85 +481,85 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Man</t>
+          <t>Non-binary</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>91</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2527472527472527</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.04048582995951416</v>
+        <v>-0.5300751879699248</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9583333333333334</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.008333333333333415</v>
+        <v>-0.9710144927536232</v>
       </c>
       <c r="G2" t="n">
-        <v>0.02201777364709126</v>
+        <v>1.976898487153613e-10</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.0005211793685715796</v>
+        <v>-0.03366801715945808</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Woman</t>
+          <t>Man</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>174</v>
+        <v>76</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3103448275862069</v>
+        <v>0.4473684210526316</v>
       </c>
       <c r="D3" t="n">
-        <v>0.01711174487944001</v>
+        <v>-0.08270676691729323</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9454545454545454</v>
+        <v>0.96875</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.004545454545454519</v>
+        <v>-0.002264492753623171</v>
       </c>
       <c r="G3" t="n">
-        <v>0.02294105778005235</v>
+        <v>0.04245569147906939</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0004021047643895138</v>
+        <v>0.008787674121921461</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Non-binary</t>
+          <t>Woman</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>189</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0.5661375661375662</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7067669172932332</v>
+        <v>0.03606237816764135</v>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>0.9716981132075472</v>
       </c>
       <c r="F4" t="n">
-        <v>0.05000000000000004</v>
+        <v>0.0006836204539240054</v>
       </c>
       <c r="G4" t="n">
-        <v>4.655190106377707e-08</v>
+        <v>0.03031248711319781</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.02253890646376178</v>
+        <v>-0.003355530243950123</v>
       </c>
     </row>
   </sheetData>
@@ -573,7 +573,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -626,7 +626,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Dutch</t>
+          <t>Croatian</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -636,355 +636,299 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.2932330827067669</v>
+        <v>-0.5300751879699248</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.95</v>
+        <v>-0.9710144927536232</v>
       </c>
       <c r="G2" t="n">
-        <v>0.02156058918651779</v>
+        <v>0.000368733070952082</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.0009783638291450507</v>
+        <v>-0.03329928428619585</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Japanese</t>
+          <t>German</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>0.375</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.2932330827067669</v>
+        <v>-0.1550751879699248</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.95</v>
+        <v>-0.2210144927536232</v>
       </c>
       <c r="G3" t="n">
-        <v>1.335315364208713e-07</v>
+        <v>0.04250950213633733</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.02253881948412642</v>
+        <v>0.008841484779189397</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Portuguese</t>
+          <t>English</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.2932330827067669</v>
+        <v>-0.1300751879699248</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.95</v>
+        <v>0.02898550724637683</v>
       </c>
       <c r="G4" t="n">
-        <v>0.05358881689418742</v>
+        <v>0.00653754325791567</v>
       </c>
       <c r="H4" t="n">
-        <v>0.03104986387852458</v>
+        <v>-0.02713047409923226</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Romanian</t>
+          <t>Italian</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.2932330827067669</v>
+        <v>-0.03007518796992481</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.95</v>
+        <v>0.02898550724637683</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0176938649269074</v>
+        <v>0.01683975980655756</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.004845088088755438</v>
+        <v>-0.01682825755059037</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Russian</t>
+          <t>Romanian</t>
         </is>
       </c>
       <c r="B6" t="n">
         <v>2</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.2932330827067669</v>
+        <v>-0.03007518796992481</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.95</v>
+        <v>0.02898550724637683</v>
       </c>
       <c r="G6" t="n">
-        <v>0.003203771082307121</v>
+        <v>0.0002475842685330954</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.01933518193335572</v>
+        <v>-0.03342043308861484</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Spanish</t>
+          <t>French</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>212</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>0.5188679245283019</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.2932330827067669</v>
+        <v>-0.01120726344162293</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>0.9809523809523809</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.95</v>
+        <v>0.009937888198757738</v>
       </c>
       <c r="G7" t="n">
-        <v>1.807556291595609e-05</v>
+        <v>0.03570957470262261</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.02252087745274688</v>
+        <v>0.002041557345474676</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Vietnamese</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.2932330827067669</v>
+        <v>0.2199248120300752</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.95</v>
+        <v>0.02898550724637683</v>
       </c>
       <c r="G8" t="n">
-        <v>0.001726846954193998</v>
+        <v>0.01572765012587149</v>
       </c>
       <c r="H8" t="n">
-        <v>-0.02081210606146884</v>
+        <v>-0.01794036723127644</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Italian</t>
+          <t>Portuguese</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1818181818181818</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.1114149008885851</v>
+        <v>0.358813700918964</v>
       </c>
       <c r="E9" t="n">
-        <v>1</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="F9" t="n">
-        <v>0.05000000000000004</v>
+        <v>-0.08212560386473433</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02404799939081666</v>
+        <v>0.06604777834785182</v>
       </c>
       <c r="H9" t="n">
-        <v>0.001509046375153825</v>
+        <v>0.03237976099070389</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Arab</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C10" t="n">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.0432330827067669</v>
+        <v>0.4699248120300752</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
       </c>
       <c r="F10" t="n">
-        <v>0.05000000000000004</v>
+        <v>0.02898550724637683</v>
       </c>
       <c r="G10" t="n">
-        <v>0.009182234160553375</v>
+        <v>0.0001425723746046208</v>
       </c>
       <c r="H10" t="n">
-        <v>-0.01335671885510946</v>
+        <v>-0.03352544498254331</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>English</t>
+          <t>Russian</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2727272727272727</v>
+        <v>1</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.02050580997949419</v>
+        <v>0.4699248120300752</v>
       </c>
       <c r="E11" t="n">
         <v>1</v>
       </c>
       <c r="F11" t="n">
-        <v>0.05000000000000004</v>
+        <v>0.02898550724637683</v>
       </c>
       <c r="G11" t="n">
-        <v>0.006354379975636961</v>
+        <v>0.05188302637260755</v>
       </c>
       <c r="H11" t="n">
-        <v>-0.01618457304002588</v>
+        <v>0.01821500901545962</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>French</t>
+          <t>Turkish</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>216</v>
+        <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>0.3055555555555556</v>
+        <v>1</v>
       </c>
       <c r="D12" t="n">
-        <v>0.01232247284878868</v>
+        <v>0.4699248120300752</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9411764705882353</v>
+        <v>1</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.008823529411764675</v>
+        <v>0.02898550724637683</v>
       </c>
       <c r="G12" t="n">
-        <v>0.02290969600157353</v>
+        <v>2.495106592893466e-06</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0003707429859106867</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>German</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>12</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.4166666666666667</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0.1234335839598998</v>
-      </c>
-      <c r="E13" t="n">
-        <v>1</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0.05000000000000004</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0.03449555859632732</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0.01195660558066448</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Chinese</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>1</v>
-      </c>
-      <c r="C14" t="n">
-        <v>1</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0.7067669172932332</v>
-      </c>
-      <c r="E14" t="n">
-        <v>1</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0.05000000000000004</v>
-      </c>
-      <c r="G14" t="n">
-        <v>3.033093867162236e-06</v>
-      </c>
-      <c r="H14" t="n">
-        <v>-0.02253591992179568</v>
+        <v>-0.03366552225055504</v>
       </c>
     </row>
   </sheetData>
@@ -1051,57 +995,57 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Non-German</t>
+          <t>German</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>254</v>
+        <v>8</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2874015748031496</v>
+        <v>0.375</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.005831507903617306</v>
+        <v>-0.1550751879699248</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9466666666666667</v>
+        <v>0.75</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.003333333333333299</v>
+        <v>-0.2210144927536232</v>
       </c>
       <c r="G2" t="n">
-        <v>0.02197407401185192</v>
+        <v>0.04250950213633733</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.0005648790038109211</v>
+        <v>0.008841484779189397</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>German</t>
+          <t>Non-German</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>12</v>
+        <v>258</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4166666666666667</v>
+        <v>0.5348837209302325</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1234335839598998</v>
+        <v>0.004808532960307699</v>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>0.9776119402985075</v>
       </c>
       <c r="F3" t="n">
-        <v>0.05000000000000004</v>
+        <v>0.006597447544884338</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03449555859632732</v>
+        <v>0.03339386279035135</v>
       </c>
       <c r="H3" t="n">
-        <v>0.01195660558066448</v>
+        <v>-0.0002741545667965806</v>
       </c>
     </row>
   </sheetData>
@@ -1168,85 +1112,85 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Mmed2</t>
+          <t>Mmed3</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1176470588235294</v>
+        <v>0.2413793103448276</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.1755860238832375</v>
+        <v>-0.2886958776250972</v>
       </c>
       <c r="E2" t="n">
         <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>0.05000000000000004</v>
+        <v>0.02898550724637683</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0108495571896013</v>
+        <v>0.01116116047190529</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.01168939582606154</v>
+        <v>-0.02250685688524264</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Mmed3</t>
+          <t>Mmed1</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1481481481481481</v>
+        <v>0.45</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.1450849345586188</v>
+        <v>-0.0800751879699248</v>
       </c>
       <c r="E3" t="n">
         <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>0.05000000000000004</v>
+        <v>0.02898550724637683</v>
       </c>
       <c r="G3" t="n">
-        <v>0.01067348194689757</v>
+        <v>0.01758036346315574</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.01186547106876527</v>
+        <v>-0.01608765389399219</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Bmed1</t>
+          <t>Mmed2</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>68</v>
+        <v>40</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3088235294117647</v>
+        <v>0.45</v>
       </c>
       <c r="D4" t="n">
-        <v>0.01559044670499782</v>
+        <v>-0.0800751879699248</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9545454545454546</v>
+        <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>0.00454545454545463</v>
+        <v>0.02898550724637683</v>
       </c>
       <c r="G4" t="n">
-        <v>0.01582499983059624</v>
+        <v>0.02495966163265421</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.006713953185066603</v>
+        <v>-0.008708355724493723</v>
       </c>
     </row>
     <row r="5">
@@ -1256,53 +1200,53 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C5" t="n">
-        <v>0.32</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="D5" t="n">
-        <v>0.02676691729323311</v>
+        <v>0.04135338345864659</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8888888888888888</v>
+        <v>0.9629629629629629</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.06111111111111112</v>
+        <v>-0.008051529790660261</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03647105523666595</v>
+        <v>0.04864604261027035</v>
       </c>
       <c r="H5" t="n">
-        <v>0.01393210222100311</v>
+        <v>0.01497802525312242</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Mmed1</t>
+          <t>Bmed1</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>36</v>
+        <v>67</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.5970149253731343</v>
       </c>
       <c r="D6" t="n">
-        <v>0.04010025062656641</v>
+        <v>0.06693973740320946</v>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>0.926829268292683</v>
       </c>
       <c r="F6" t="n">
-        <v>0.05000000000000004</v>
+        <v>-0.0441852244609402</v>
       </c>
       <c r="G6" t="n">
-        <v>0.02318643936256162</v>
+        <v>0.04094490340066521</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0006474863468987832</v>
+        <v>0.007276886043517276</v>
       </c>
     </row>
     <row r="7">
@@ -1312,25 +1256,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4117647058823529</v>
+        <v>0.7317073170731707</v>
       </c>
       <c r="D7" t="n">
-        <v>0.118531623175586</v>
+        <v>0.2016321291032459</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9545454545454546</v>
+        <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>0.00454545454545463</v>
+        <v>0.02898550724637683</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03144956819191326</v>
+        <v>0.04398666692038735</v>
       </c>
       <c r="H7" t="n">
-        <v>0.008910615176250421</v>
+        <v>0.01031864956323942</v>
       </c>
     </row>
   </sheetData>
